--- a/CAP2015.xlsx
+++ b/CAP2015.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiaankolmschate/Development/CAP-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF0ADDD-0A4D-BF4C-804C-8D22EB82A1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FABCC34B-AF09-BA4E-9A9C-67FC6195C9AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="500" windowWidth="15220" windowHeight="16940" xr2:uid="{5D2C64C4-1BE4-E14B-8F52-07978C6170ED}"/>
+    <workbookView xWindow="10700" yWindow="2060" windowWidth="15220" windowHeight="16940" xr2:uid="{5D2C64C4-1BE4-E14B-8F52-07978C6170ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -471,19 +471,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -495,6 +482,19 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -514,19 +514,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB380F14-6682-FD47-B062-7FFDBDA2AB90}" name="Table1" displayName="Table1" ref="A1:J406" totalsRowShown="0" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BB380F14-6682-FD47-B062-7FFDBDA2AB90}" name="Table1" displayName="Table1" ref="A1:J406" totalsRowShown="0" dataDxfId="10">
   <autoFilter ref="A1:J406" xr:uid="{BB380F14-6682-FD47-B062-7FFDBDA2AB90}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A3AABEFB-0DC0-B94F-BC49-251F9DF12360}" name="Method name" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{83B12AF4-AD84-EE48-A462-DBB6892D4F6C}" name="N" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{346258D9-B995-9947-8F6B-3B386C724C38}" name="Mean" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{E32D5BC7-FE6C-574A-AA47-19CCC4394145}" name="Bias" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{21D9299A-6FD4-F245-9200-B594A594845C}" name="CV" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{BB8622D9-C5AA-1F46-B081-02B5EC8B027A}" name="Sample" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{0CE747BC-FC48-BB4C-814E-2937DAA6FBB6}" name="Reference Value" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{CB9A57A2-5F32-9E41-B946-E398E98FDB2D}" name="Year" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{ECADD8B3-EF79-EC42-B0E0-B59FDA872D98}" name="Source" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{3D0F17FE-1AF9-9249-BEB4-B031A9DCDC4A}" name="Type" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A3AABEFB-0DC0-B94F-BC49-251F9DF12360}" name="Method name" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{83B12AF4-AD84-EE48-A462-DBB6892D4F6C}" name="N" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{346258D9-B995-9947-8F6B-3B386C724C38}" name="Mean" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{E32D5BC7-FE6C-574A-AA47-19CCC4394145}" name="Bias" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{21D9299A-6FD4-F245-9200-B594A594845C}" name="CV" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BB8622D9-C5AA-1F46-B081-02B5EC8B027A}" name="Sample" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{0CE747BC-FC48-BB4C-814E-2937DAA6FBB6}" name="Reference Value" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{CB9A57A2-5F32-9E41-B946-E398E98FDB2D}" name="Year" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{ECADD8B3-EF79-EC42-B0E0-B59FDA872D98}" name="Source" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{3D0F17FE-1AF9-9249-BEB4-B031A9DCDC4A}" name="Type" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF6493C-2751-7C4D-A164-F0A399DB84AE}">
   <dimension ref="A1:J406"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A28" sqref="A17:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
